--- a/hang/vi-tri-thuoc-nut.xlsx
+++ b/hang/vi-tri-thuoc-nut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\strongway_dungcu\hang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="151">
   <si>
     <t>02</t>
   </si>
@@ -284,481 +284,159 @@
 Dưỡng ren: : M6x0.5+0.04-II (BTP) / M6x0.5-II (TP) / Dưỡng rãnh : 13.1 - 13.22(BTP) / 13.05 - 13.20(TP)</t>
   </si>
   <si>
+    <t>ASAHI</t>
+  </si>
+  <si>
+    <t>505 / 508 / 51K / 1916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHÚC CẦN </t>
+  </si>
+  <si>
+    <t>ARAI</t>
+  </si>
+  <si>
+    <t>VMEP</t>
+  </si>
+  <si>
+    <t>SUZUKI</t>
+  </si>
+  <si>
+    <t>DUCATI</t>
+  </si>
+  <si>
+    <t>ISEKI</t>
+  </si>
+  <si>
+    <t>JUKI</t>
+  </si>
+  <si>
+    <t>PULLEY</t>
+  </si>
+  <si>
+    <t>PHÚC CẦN -MANDARIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dưỡng trục / Dưỡng ren </t>
+  </si>
+  <si>
+    <t>Dưỡng trục</t>
+  </si>
+  <si>
+    <t>Dưỡng trục / Dưỡng rãnh</t>
+  </si>
+  <si>
+    <t>A1404090 (AQ) / A1908060 / A2006064 / A1611062(SV) / 
+A1712023 ; F.OUT</t>
+  </si>
+  <si>
+    <t>A1908061 /A1908062/A1609174</t>
+  </si>
+  <si>
+    <t>A1906173 / A2006063 / A1408113</t>
+  </si>
+  <si>
+    <t>A1903058</t>
+  </si>
+  <si>
+    <t>A1802056 / A1802057 ; A1908056</t>
+  </si>
+  <si>
+    <t>A/R M92 / M36 / VWB</t>
+  </si>
+  <si>
+    <t>20G00 / 28G20 / 33G10 / 46G10</t>
+  </si>
+  <si>
+    <t>259-004 / 256-055 / 256-002</t>
+  </si>
+  <si>
+    <t>253-002 / ROD / PISTION</t>
+  </si>
+  <si>
+    <t>400250100X0 / 400321810X0 / 40203098OXO /</t>
+  </si>
+  <si>
+    <t>401576040X0, LVEVR</t>
+  </si>
+  <si>
+    <t>H7R4477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 00- 34 10/ 14 985 - 15.003(BTP)/ 15 00- 15.018(TP)/ 14.376 - 14 398(BTP) / 14.381 - 14.398(TP) /7.10 - 7.15(BTP) / 7.10 - 7.17(BTP) / 7.07 - 7.15(TP) / 4.95 - 5.12
+ Dưỡng ren: M10x1.25-II / Dưỡng rãnh: 9.92 - 10.10(BTP) / 9.90 - 10.10(TP) </t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>240-00861-20 (2BM)</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>BODY A3F / M92</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>208 / 209</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>F/S 308</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>254-009 / 254-003 / 254-002 /</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>40130015 / 40215905 / 40192401</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>STT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>TÊN DỤNG CỤ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>QUI CÁCH</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>21</t>
-    </r>
-  </si>
-  <si>
-    <t>ASAHI</t>
-  </si>
-  <si>
-    <t>505 / 508 / 51K / 1916</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">4 00- 34 10/ 14 985 - I5003(BTP)/ 15 00- I5.018(TP)/ 14.376 - 14 398(BTP)/ 14.381 - I4.398(TP)/7 10 - 7 15(BTP)/7 10 - 7.17(BTP)/7.07.7.15(TP) / 4.95.5.12 )ưừ»g rcn : M 10x125-11/Dirờng rflnh : 9.92 - 10.10(BTP)/9.90 - 10 IO(TP) ^ ^ * * . </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>ệ ^</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>665 -690/67.7-678/935-9 55/ 13 65 - 13 80(BTP) / 13.60- 13 80(TP) / 54 10 - 54 20 i)irờng rcn M8x 1.25-11 ( • Cliu ý AQ + 060 đung dưỡng rcn aui pliuc cún cung cắp dc loan kicm)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>26</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">PHÚC CẦN </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>4.917 -5.153/Dirửng rcn : M6xl.0-ll GPIP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>27</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>8.376 - 8.676 / Dường rcn : MIOxl.5-11 / Dưỡng đô rộng 145.9 - 160.0 / 89.70 - 89.80</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>24.005 - 24.025 / 26.20 - 26 30 / 7 50 - 7.70 / 8.90 - 9.30 / 8.00 - 8.20 / 16.00 - 16 10 / 18 00 - 18 10 Duửng reo : M6x I.O-D GP1P ( • Chú ý : A1903058 dùng dường rcn cua phúc cản cung cáp dc toàn kiêm)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>4.90 - 5.10 / 5.10 - 5.30 / Dưửng rcn M6xl.0-6H ; 8.917 - 9.153 / MlOxl 0-6H (• Chủ ỳ : A1908056 dùng dưừng rcn cim phúc càn cung cấp dè loàn kiém)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>30</t>
-    </r>
-  </si>
-  <si>
-    <t>ARAI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>240-00861-20 (2BM)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>6.50 - 6.60 / 6.20 - 6 30 / 3.70 - 3.90 / 4.917 - 5.15 / 15 70 - 16 30 (06 2 ♦ 06 5) Duừng ren : M6xl.0-U(M6xl.0-6H)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>31</t>
-    </r>
-  </si>
-  <si>
-    <t>VMEP</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>BODY A3F / M92</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>196 - 2.98 / 7.0 - 7.022 / 29.15 - 29.18 (29.10 - 29.13) / 8.00 - 8.025 (8.00 - 8.022) Duửng ren M3x0.5 ^ \ ^ '</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>11.91 - 11.94 / 4.50 - 4.58/ 11.990- 12.005 / 12.00 - 12.018.9.93 - 9.96 / 9.990 - 10.005/ 10.00- 10.015 : 9.91 - 9.94 / DuOng ren : M5x0.5*0.04-I(BTP) / M5x0.5-I(TP)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>33</t>
-    </r>
-  </si>
-  <si>
-    <t>SUZUKI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>9.93 - 9 96 / 4.50 - 4 60 / 9990- 10.005/10 003 - 10.018 ; 13.016- 13.034/ 13.016- 13.046 M5x0.5+0.04-l(BTP) / M5x0.5-1(TP)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>34</t>
-    </r>
-  </si>
-  <si>
-    <t>DUCATI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>208 / 209</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>9.965 - 9.995 / 9.985 - 10.015 / 10.030 - 10.045 / 10.040 - 10.062 / 9.93 - 9.96 / 9.95 - 9.98 Duửngrânh: 08.20-8.40(209)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>35</t>
-    </r>
-  </si>
-  <si>
-    <t>ISEKI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>F/S 308</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>15 95 - 15.98 / 6.58 - 6.73 / Pin GO-NOGO 6.58 / 16.016 - 16 043 / 25.967 - 26.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>36</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>13.96 - 13 99 / 8.10 - 8.25 / 14.00 - 14.027 / DuOng rinh ; 14.05 - 14.20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>37</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>13.96 -13 99 / 8.10 - 8.25 / 14.00 - 14.027 / Dưửng rinh : 12.05 - 12.20 ; 20.10 - 20.20 ; 8.90 - 9.10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>38</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>254-009 / 254-003 / 254-002 /</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>13.96- 13 99 / 6.00 - 6.12/ 14.00 - 14 027 / DuOng rinh : 14.05-14.20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>39</t>
-    </r>
-  </si>
-  <si>
-    <t>JUKI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>36.00 - 36.039 / 3.24 - 3.42 / Duửng ren : M4x0.7-U ; 31 980 - 31.996</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>40</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>40130015 / 40215905 / 40192401</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
-      <t>3.24 - 3.42/2.70-3.10/8.00-8.015 ; 5.00 - 5.012 / 25.002 - 25.023/ 15.00- 15 018 / 27 990 - 28 010 DuOng ren: M4x0.7-n / M6xl.0-ll / 11/64-10 : M&amp;X 1.25-11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
       <t>41</t>
     </r>
     <r>
@@ -773,15 +451,7 @@
     </r>
   </si>
   <si>
-    <t>43.02 - 43.08 / 5.40 * 5.60 / 11.80 • 12.20(05.5) / 4.134 • 4.334 / 3.70 - 3.90 / 62.00 • 62.03/. ềl • J ề. m( Dưỡng rcn : M5xO,8-U / 3/16-28</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-      </rPr>
       <t>42</t>
     </r>
     <r>
@@ -796,63 +466,108 @@
     </r>
   </si>
   <si>
-    <t>PULLEY</t>
-  </si>
-  <si>
-    <t>PHÚC CẦN -MANDARIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dưỡng trục / Dưỡng ren </t>
-  </si>
-  <si>
-    <t>Dưỡng trục</t>
-  </si>
-  <si>
-    <t>Dưỡng trục / Dưỡng rãnh</t>
-  </si>
-  <si>
-    <t>A1404090 (AQ) / A1908060 / A2006064 / A1611062(SV) / 
-A1712023 ; F.OUT</t>
-  </si>
-  <si>
-    <t>A1908061 /A1908062/A1609174</t>
-  </si>
-  <si>
-    <t>A1906173 / A2006063 / A1408113</t>
-  </si>
-  <si>
-    <t>A1903058</t>
-  </si>
-  <si>
-    <t>A1802056 / A1802057 ; A1908056</t>
-  </si>
-  <si>
-    <t>A/R M92 / M36 / VWB</t>
-  </si>
-  <si>
-    <t>20G00 / 28G20 / 33G10 / 46G10</t>
-  </si>
-  <si>
-    <t>259-004 / 256-055 / 256-002</t>
-  </si>
-  <si>
-    <t>253-002 / ROD / PISTION</t>
-  </si>
-  <si>
-    <t>400250100X0 / 400321810X0 / 40203098OXO /</t>
-  </si>
-  <si>
-    <t>401576040X0, LVEVR</t>
-  </si>
-  <si>
-    <t>H7R4477</t>
+    <r>
+      <t xml:space="preserve">6.65 -6.90 / 67.7-67.8 / 9.35-9.55/ 13.65 - 13.80(BTP) / 13.60- 13.80(TP) / 54.10 - 54.20 
+Dưỡng ren: M8x 1.25-II </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>( • Chú ý: AQ + 060 dùng dưỡng ren của Phúc Cần cung cấp để toàn kiểm)</t>
+    </r>
+  </si>
+  <si>
+    <t>4.917 -5.153 / Dưỡng ren : M6x1.0-ll GPIP</t>
+  </si>
+  <si>
+    <t>8.376 - 8.676 / Dưỡng ren : M10xl.5-II / Dưỡng đô rộng 145.9 - 160.0 / 89.70 - 89.80</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">24.005 - 24.025 / 26.20 - 26.30 / 7.50 - 7.70 / 8.90 - 9.30 / 8.00 - 8.20 / 16.00 - 16.10 / 18.00 - 18.10 
+Dưỡng ren: M6x1.0-II GPIP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>( • Chú ý : A1903058 dùng dưỡng ren của Phúc Cần cung cấp để toàn kiểm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.90 - 5.10 / 5.10 - 5.30 / Dưỡng ren: M6x1.0-6H ; 8.917 - 9.153 / M10x1.0-6H 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(• Chú ý   : A1908056 dưỡng ren của Phúc Cần cung cấp để toàn kiểm)</t>
+    </r>
+  </si>
+  <si>
+    <t>6.50 - 6.60 / 6.20 - 6.30 / 3.70 - 3.90 / 4.917 - 5.15 / 15.70 - 16.30 (Φ 6.2 + Φ 6.5)    
+Dưỡng ren: M6x1.0-II(M6x1.0-6H)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96 - 2.98 / 7.0 - 7.022 / 29.15 - 29.18 (29.10 - 29.13) / 8.00 - 8.025 (8.00 - 8.022) 
+Dưỡng ren: M3x0.5 </t>
+  </si>
+  <si>
+    <t>11.91 - 11.94 / 4.50 - 4.58/ 11.990- 12.005 / 12.00 - 12.018 ; 9.93 - 9.96 / 9.990 - 10.005/ 10.00- 10.015 ; 9.91 - 9.94 / Dưỡng ren: M5x0.5+0.04-I(BTP) / M5x0.5-I(TP)</t>
+  </si>
+  <si>
+    <t>9.93 - 9.96 / 4.50 - 4.60 / 9.990- 10.005 /10.003 - 10.018 ; 13.016- 13.034/ 13.016- 13.046 
+Dưỡng ren: M5x0.5+0.04-l(BTP) / M5x0.5-I(TP)</t>
+  </si>
+  <si>
+    <t>9.965 - 9.995 / 9.985 - 10.015 / 10.030 - 10.045 / 10.040 - 10.062 / 9.93 - 9.96 / 9.95 - 9.98 
+Dưỡng rãnh: Φ 8.20-8.40(209)</t>
+  </si>
+  <si>
+    <t>15 95 - 15.98 / 6.58 - 6.73 / Pin GO-NOGO 6.58 / 16.016 - 16.043 / 25.967 - 26.00</t>
+  </si>
+  <si>
+    <t>13.96 - 13.99 / 8.10 - 8.25 / 14.00 - 14.027 / Dưỡng rãnh: 14.05 - 14.20</t>
+  </si>
+  <si>
+    <t>13.96 -13 99 / 8.10 - 8.25 / 14.00 - 14.027 / Dưỡng rãnh: 12.05 - 12.20 ; 20.10 - 20.20 ; 8.90 - 9.10</t>
+  </si>
+  <si>
+    <t>13.96- 13.99 / 6.00 - 6.12/ 14.00 - 14 027 / Dưỡng rãnh: 14.05-14.20</t>
+  </si>
+  <si>
+    <t>36.00 - 36.039 / 3.24 - 3.42 / Dưỡng ren: M4x0.7-II ; 31.980 - 31.996</t>
+  </si>
+  <si>
+    <t>3.24 - 3.42 / 2.70-3.10 / 8.00-8.015 ; 5.00 - 5.012 / 25.002 - 25.023/ 15.00- 15.018 / 27.990 - 28.010 
+Dưỡng ren: M4x0.7-II / M6x1.0-ll / 11/64-40 : M8x 1.25-II</t>
+  </si>
+  <si>
+    <t>43.02 - 43.08 / 5.40 - 5.60 / 11.80 - 12.20(Φ 5.5) / 4.134 - 4.334 / 3.70 - 3.90 / 62.00 • 62.03
+Dưỡng ren: M5x0.8-II / 3/16-28</t>
+  </si>
+  <si>
+    <t>10.00 - 10.015 / 37.00 - 37.039 ; 20.81 - 20.84 / 34.961- 35.00 / 21.00 - 21.033
+Dưỡng ren: M6x1.0-II / M5x0.8-II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -916,21 +631,10 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <name val="Palatino Linotype"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Palatino Linotype"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Palatino Linotype"/>
-      <family val="1"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1347,7 +1051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1425,27 +1129,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1473,17 +1156,47 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1494,12 +1207,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1524,9 +1231,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1566,55 +1270,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1914,24 +1600,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -1946,10 +1632,10 @@
       <c r="D3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="81"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
@@ -1976,10 +1662,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="62"/>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="83"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -1990,10 +1676,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="62"/>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="83"/>
+      <c r="F6" s="43"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -2032,16 +1718,16 @@
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="79"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="50" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -2050,84 +1736,84 @@
       <c r="D10" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="77"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="61" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="62"/>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67"/>
-      <c r="B12" s="48"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="64"/>
       <c r="D12" s="62"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="68"/>
-      <c r="B13" s="48"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="65"/>
       <c r="D13" s="62"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="62"/>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="77"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D15" s="63"/>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="77"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="77"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:10" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
@@ -2142,10 +1828,10 @@
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="79"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
@@ -2160,10 +1846,10 @@
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="77"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
@@ -2178,10 +1864,10 @@
       <c r="D19" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="75"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
@@ -2192,10 +1878,10 @@
         <v>24</v>
       </c>
       <c r="D20" s="72"/>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="75"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
@@ -2206,10 +1892,10 @@
         <v>48</v>
       </c>
       <c r="D21" s="73"/>
-      <c r="E21" s="74" t="s">
+      <c r="E21" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="75"/>
+      <c r="F21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
@@ -2222,10 +1908,10 @@
       <c r="D22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="75"/>
+      <c r="F22" s="49"/>
     </row>
     <row r="23" spans="1:10" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
@@ -2238,10 +1924,10 @@
       <c r="D23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="75"/>
+      <c r="F23" s="49"/>
       <c r="J23" s="16" t="s">
         <v>52</v>
       </c>
@@ -2277,10 +1963,10 @@
       <c r="D25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="90"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
@@ -2288,6 +1974,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="D19:D21"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="E3:F3"/>
@@ -2304,16 +2000,6 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="E11:F13"/>
     <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2324,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2337,329 +2023,331 @@
     <col min="5" max="5" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:5" ht="14" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="75" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>83</v>
+        <v>34</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>87</v>
+      <c r="E4" s="30" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>89</v>
+        <v>109</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>92</v>
+        <v>110</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B7" s="64"/>
-      <c r="C7" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>94</v>
+      <c r="E7" s="32" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B8" s="64"/>
-      <c r="C8" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>96</v>
+      <c r="C8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B9" s="65"/>
-      <c r="C9" s="33" t="s">
-        <v>145</v>
+      <c r="C9" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="D9" s="65"/>
-      <c r="E9" s="37" t="s">
-        <v>98</v>
+      <c r="E9" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>138</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>85</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="40" t="s">
-        <v>106</v>
+      <c r="E11" s="33" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B12" s="65"/>
-      <c r="C12" s="33" t="s">
-        <v>146</v>
+      <c r="C12" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="D12" s="65"/>
-      <c r="E12" s="39" t="s">
-        <v>108</v>
+      <c r="E12" s="32" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>115</v>
+        <v>121</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B16" s="72"/>
-      <c r="C16" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="85" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>121</v>
+      <c r="C16" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B17" s="72"/>
-      <c r="C17" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="41" t="s">
-        <v>123</v>
+      <c r="C17" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="72"/>
+      <c r="E17" s="34" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B18" s="73"/>
-      <c r="C18" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="41" t="s">
-        <v>126</v>
+      <c r="C18" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="73"/>
+      <c r="E18" s="34" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>129</v>
+      <c r="B19" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="37" t="s">
-        <v>132</v>
+      <c r="D20" s="64"/>
+      <c r="E20" s="30" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="89"/>
+        <v>131</v>
+      </c>
+      <c r="B21" s="65"/>
       <c r="C21" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="42" t="s">
-        <v>134</v>
+        <v>105</v>
+      </c>
+      <c r="D21" s="65"/>
+      <c r="E21" s="35" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>152</v>
+        <v>90</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="43"/>
+      <c r="E22" s="84" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2676,5 +2364,6 @@
     <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>